--- a/data/processed/Cleaned_Japan_Life_Expectancy_X_test.xlsx
+++ b/data/processed/Cleaned_Japan_Life_Expectancy_X_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Ambulances_100kP</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Socioeconomic_index</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +497,9 @@
       <c r="G2" t="n">
         <v>0.4</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.3843718585192488</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>0.5333333333333333</v>
       </c>
+      <c r="H3" t="n">
+        <v>-0.01992744866307816</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +549,9 @@
       <c r="G4" t="n">
         <v>0.5111111111111111</v>
       </c>
+      <c r="H4" t="n">
+        <v>-0.2787050961770162</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +575,9 @@
       <c r="G5" t="n">
         <v>0.7222222222222222</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.09494795948844575</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
       <c r="G6" t="n">
         <v>0.2888888888888889</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.3721690674958914</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +627,9 @@
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.2223719239272494</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,6 +653,9 @@
       <c r="G8" t="n">
         <v>0.1777777777777778</v>
       </c>
+      <c r="H8" t="n">
+        <v>0.3540764170905675</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -653,6 +679,9 @@
       <c r="G9" t="n">
         <v>0.8333333333333331</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.277766171996744</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -676,6 +705,9 @@
       <c r="G10" t="n">
         <v>0.4999999999999999</v>
       </c>
+      <c r="H10" t="n">
+        <v>-0.1212000113841918</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -698,6 +730,9 @@
       </c>
       <c r="G11" t="n">
         <v>0.4999999999999999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.01616699936788246</v>
       </c>
     </row>
   </sheetData>
